--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_02_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_02_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In a nearby park, stall owner Jaye is chatting with his friend Waai Fu, where they greet a mysterious "Sankta" guest. Elsewhere, Bison, who pursued the enemy without permission, is attacked by a mysterious sniper and falls off the overpass.
+    <t xml:space="preserve">In a nearby park, stall owner Jaye is chatting with his friend Waai Fu, where they greet a mysterious 'Sankta' guest. Elsewhere, Bison, who pursued the enemy without permission, is attacked by a mysterious sniper and falls off the overpass.
 </t>
   </si>
   <si>
